--- a/data/type2.xlsx
+++ b/data/type2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32000" windowHeight="13660"/>
+    <workbookView windowWidth="30240" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Type</t>
   </si>
@@ -38,25 +38,10 @@
     <t>tx</t>
   </si>
   <si>
-    <t>Solana</t>
+    <t>XRP</t>
   </si>
   <si>
-    <t>4KRY88qDRGrQkWd4vxhFmTHQzFjRqjnU4v31uyQwK2ME2F14xQtmb4gM9keCUStWETCh1RymL1dKfum9x1DtnuGP</t>
-  </si>
-  <si>
-    <t>5X4mJqWUUkcGPs7ZpYF7Jo9SmPUasnkDgPhD851MmKpQ3GsCTQC21tc7KrncEY5vW3aZ94RGXjYN1S1qKxVkHHZQ</t>
-  </si>
-  <si>
-    <t>2E6kkBMa1ho5mHGwXaYW9dKqAK7G9t4mxXV7Ah345JcTvuYcQav1vhCK7mUq3u1xuVdGwLd4kNpuSADshrxiiNB</t>
-  </si>
-  <si>
-    <t>35kqYG9Qa2zKKN4CZJPPpTQKXqagzPiNCLfgorikTBoxvfk1KhXBYyzkgoGVvDUnTEtnsrAd9BTy8N4yMvjL2mqW</t>
-  </si>
-  <si>
-    <t>2vs68r64B52e5J3SsS2Ugku2BBJcH5Hb75EqGxi2WUmeFvVUPqLYLYJ2RSaSog7kh9WJz8v1pQi54PgnhPALJ5RL</t>
-  </si>
-  <si>
-    <t>3gA8vR2VWbYuoSKPbtbgJgjQEDG8s3fd6P66GoCsoi4yLxYhPzsgTe1aCyXxtE2UDso6cfzy82WoAkXt9yQyvk9A</t>
+    <t>2EB4913CE256D6ABFAC9CED396E67F9DAD3DF8D92FB9B9B91F2D6481F6EF34E3</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1192,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1226,71 +1211,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="34" spans="1:3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
-    <row r="4" ht="17" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="17" spans="1:3">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
-    <row r="6" ht="17" spans="1:3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
-    <row r="7" ht="17" spans="1:3">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
